--- a/biology/Botanique/Ombelle/Ombelle.xlsx
+++ b/biology/Botanique/Ombelle/Ombelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ombelle est une inflorescence simple dans laquelle les pédoncules floraux sont tous insérés au même point de la tige, et les fleurs sont toutes disposées sur une même surface sphérique, ou parfois plane. C’est en quelque sorte un corymbe dans lequel l’axe s’est condensé en un point. 
 C’est l’inflorescence typique des Ombellifères, mais on la rencontre dans d’autres familles (exemple : le lierre grimpant). 
